--- a/GUARDIA FIN DE SEMANA/GRUPOS.xlsx
+++ b/GUARDIA FIN DE SEMANA/GRUPOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\GUARDIA FIN DE SEMANA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE57431A-7CF1-40F7-8A6D-41799A181662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFFE1EE3-254F-4B28-BFA4-A126CA50BC35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{D80C395B-C4B4-4A7C-98A9-05DE7EC850AC}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="38">
   <si>
     <t>GRUPO 2</t>
   </si>
@@ -827,6 +827,75 @@
     <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -839,76 +908,16 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -920,15 +929,6 @@
     <xf numFmtId="14" fontId="2" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -936,11 +936,38 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -948,33 +975,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1340,17 +1340,17 @@
   <sheetData>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="82" t="s">
+      <c r="B5" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="83"/>
-      <c r="D5" s="84"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="72"/>
     </row>
     <row r="6" spans="1:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="65">
+      <c r="C6" s="73">
         <v>45388</v>
       </c>
       <c r="D6" s="48" t="s">
@@ -1358,62 +1358,62 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="62"/>
-      <c r="C7" s="65"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="73"/>
       <c r="D7" s="43" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="62"/>
-      <c r="C8" s="65"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="73"/>
       <c r="D8" s="39" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="62"/>
-      <c r="C9" s="66"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="74"/>
       <c r="D9" s="42"/>
     </row>
     <row r="10" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="62"/>
-      <c r="C10" s="67">
+      <c r="B10" s="78"/>
+      <c r="C10" s="75">
         <v>45389</v>
       </c>
       <c r="D10" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="62"/>
-      <c r="C11" s="68"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="76"/>
       <c r="D11" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="59"/>
-      <c r="G11" s="60"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="83"/>
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="62"/>
-      <c r="C12" s="68"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="76"/>
       <c r="D12" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="59"/>
-      <c r="G12" s="60"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="83"/>
       <c r="H12" s="11"/>
     </row>
     <row r="13" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="63"/>
-      <c r="C13" s="69"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="77"/>
       <c r="D13" s="47"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="60"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="83"/>
       <c r="H13" s="12"/>
     </row>
     <row r="14" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1421,54 +1421,54 @@
       <c r="B14" s="24"/>
       <c r="C14" s="19"/>
       <c r="D14" s="20"/>
-      <c r="F14" s="59"/>
+      <c r="F14" s="82"/>
       <c r="G14" s="15"/>
       <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="85" t="s">
+      <c r="B15" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="83"/>
-      <c r="D15" s="84"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="60"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="72"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="83"/>
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="61" t="s">
+      <c r="B16" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="64">
+      <c r="C16" s="85">
         <v>45388</v>
       </c>
       <c r="D16" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="59"/>
-      <c r="G16" s="60"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="83"/>
       <c r="H16" s="12"/>
     </row>
     <row r="17" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="62"/>
-      <c r="C17" s="65"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="73"/>
       <c r="D17" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="59"/>
-      <c r="G17" s="60"/>
+      <c r="F17" s="82"/>
+      <c r="G17" s="83"/>
       <c r="H17" s="11"/>
     </row>
     <row r="18" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="62"/>
-      <c r="C18" s="66"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="74"/>
       <c r="D18" s="45" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="62"/>
-      <c r="C19" s="67">
+      <c r="B19" s="78"/>
+      <c r="C19" s="75">
         <v>45389</v>
       </c>
       <c r="D19" s="44" t="s">
@@ -1476,15 +1476,15 @@
       </c>
     </row>
     <row r="20" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="62"/>
-      <c r="C20" s="68"/>
+      <c r="B20" s="78"/>
+      <c r="C20" s="76"/>
       <c r="D20" s="46" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="63"/>
-      <c r="C21" s="69"/>
+      <c r="B21" s="79"/>
+      <c r="C21" s="77"/>
       <c r="D21" s="41" t="s">
         <v>19</v>
       </c>
@@ -1498,58 +1498,65 @@
       <c r="H22" s="17"/>
     </row>
     <row r="23" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="79"/>
-      <c r="C23" s="80"/>
-      <c r="D23" s="81"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="69"/>
     </row>
     <row r="24" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="70" t="s">
+      <c r="B24" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="73"/>
+      <c r="C24" s="61"/>
       <c r="D24" s="13" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="71"/>
-      <c r="C25" s="74"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="62"/>
       <c r="D25" s="1"/>
     </row>
     <row r="26" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="71"/>
-      <c r="C26" s="74"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="62"/>
       <c r="D26" s="7"/>
     </row>
     <row r="27" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="71"/>
-      <c r="C27" s="75"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="63"/>
       <c r="D27" s="2"/>
     </row>
     <row r="28" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="71"/>
-      <c r="C28" s="76"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="64"/>
       <c r="D28" s="14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="71"/>
-      <c r="C29" s="77"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="65"/>
       <c r="D29" s="1"/>
     </row>
     <row r="30" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="71"/>
-      <c r="C30" s="77"/>
+      <c r="B30" s="59"/>
+      <c r="C30" s="65"/>
       <c r="D30" s="7"/>
     </row>
     <row r="31" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="72"/>
-      <c r="C31" s="78"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="66"/>
       <c r="D31" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F11:F17"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C19:C21"/>
     <mergeCell ref="B24:B31"/>
     <mergeCell ref="C24:C27"/>
     <mergeCell ref="C28:C31"/>
@@ -1559,13 +1566,6 @@
     <mergeCell ref="C10:C13"/>
     <mergeCell ref="B6:B13"/>
     <mergeCell ref="B15:D15"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F11:F17"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="C19:C21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -1590,17 +1590,17 @@
   <sheetData>
     <row r="4" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="83"/>
-      <c r="D5" s="84"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="72"/>
     </row>
     <row r="6" spans="2:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="89">
+      <c r="C6" s="86">
         <v>45332</v>
       </c>
       <c r="D6" s="57" t="s">
@@ -1608,141 +1608,141 @@
       </c>
     </row>
     <row r="7" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="62"/>
-      <c r="C7" s="90"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="87"/>
       <c r="D7" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="62"/>
-      <c r="C8" s="90"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="87"/>
       <c r="D8" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="62"/>
-      <c r="C9" s="91"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="88"/>
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="62"/>
-      <c r="C10" s="86">
+      <c r="B10" s="78"/>
+      <c r="C10" s="89">
         <v>45333</v>
       </c>
       <c r="D10" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
     </row>
     <row r="11" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="62"/>
-      <c r="C11" s="87"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="90"/>
       <c r="D11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="59"/>
-      <c r="G11" s="60"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="83"/>
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="62"/>
-      <c r="C12" s="87"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="90"/>
       <c r="D12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="59"/>
-      <c r="G12" s="60"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="83"/>
       <c r="H12" s="11"/>
     </row>
     <row r="13" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="62"/>
-      <c r="C13" s="88"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="91"/>
       <c r="D13" s="7"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="60"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="83"/>
       <c r="H13" s="12"/>
     </row>
     <row r="14" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="62"/>
+      <c r="B14" s="78"/>
       <c r="C14" s="52"/>
       <c r="D14" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="59"/>
+      <c r="F14" s="82"/>
       <c r="G14" s="15"/>
       <c r="H14" s="12"/>
     </row>
     <row r="15" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="62"/>
+      <c r="B15" s="78"/>
       <c r="C15" s="53">
         <v>45334</v>
       </c>
       <c r="D15" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="59"/>
+      <c r="F15" s="82"/>
       <c r="G15" s="15"/>
       <c r="H15" s="12"/>
     </row>
     <row r="16" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="62"/>
+      <c r="B16" s="78"/>
       <c r="C16" s="53"/>
       <c r="D16" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="59"/>
+      <c r="F16" s="82"/>
       <c r="G16" s="15"/>
       <c r="H16" s="12"/>
     </row>
     <row r="17" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="62"/>
+      <c r="B17" s="78"/>
       <c r="C17" s="54"/>
       <c r="D17" s="25"/>
-      <c r="F17" s="59"/>
+      <c r="F17" s="82"/>
       <c r="G17" s="15"/>
       <c r="H17" s="12"/>
     </row>
     <row r="18" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="37"/>
-      <c r="C18" s="86">
+      <c r="C18" s="89">
         <v>45335</v>
       </c>
       <c r="D18" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="59"/>
+      <c r="F18" s="82"/>
       <c r="G18" s="15"/>
       <c r="H18" s="12"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="35"/>
-      <c r="C19" s="87"/>
+      <c r="C19" s="90"/>
       <c r="D19" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F19" s="59"/>
+      <c r="F19" s="82"/>
       <c r="G19" s="15"/>
       <c r="H19" s="12"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="35"/>
-      <c r="C20" s="87"/>
+      <c r="C20" s="90"/>
       <c r="D20" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F20" s="59"/>
+      <c r="F20" s="82"/>
       <c r="G20" s="15"/>
       <c r="H20" s="12"/>
     </row>
     <row r="21" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="36"/>
-      <c r="C21" s="88"/>
+      <c r="C21" s="91"/>
       <c r="D21" s="8"/>
-      <c r="F21" s="59"/>
+      <c r="F21" s="82"/>
       <c r="G21" s="15"/>
       <c r="H21" s="12"/>
     </row>
@@ -1751,7 +1751,7 @@
       <c r="B22" s="24"/>
       <c r="C22" s="19"/>
       <c r="D22" s="20"/>
-      <c r="F22" s="59"/>
+      <c r="F22" s="82"/>
       <c r="G22" s="15"/>
       <c r="H22" s="12"/>
     </row>
@@ -1761,44 +1761,44 @@
       </c>
       <c r="C23" s="93"/>
       <c r="D23" s="94"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="60"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="83"/>
       <c r="H23" s="11"/>
     </row>
     <row r="24" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="61" t="s">
+      <c r="B24" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="89">
+      <c r="C24" s="86">
         <v>45332</v>
       </c>
       <c r="D24" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="F24" s="59"/>
-      <c r="G24" s="60"/>
+      <c r="F24" s="82"/>
+      <c r="G24" s="83"/>
       <c r="H24" s="12"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="62"/>
-      <c r="C25" s="90"/>
+      <c r="B25" s="78"/>
+      <c r="C25" s="87"/>
       <c r="D25" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="59"/>
-      <c r="G25" s="60"/>
+      <c r="F25" s="82"/>
+      <c r="G25" s="83"/>
       <c r="H25" s="11"/>
     </row>
     <row r="26" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="62"/>
-      <c r="C26" s="90"/>
+      <c r="B26" s="78"/>
+      <c r="C26" s="87"/>
       <c r="D26" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="62"/>
-      <c r="C27" s="86">
+      <c r="B27" s="78"/>
+      <c r="C27" s="89">
         <v>45333</v>
       </c>
       <c r="D27" s="55" t="s">
@@ -1806,22 +1806,22 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="62"/>
-      <c r="C28" s="87"/>
+      <c r="B28" s="78"/>
+      <c r="C28" s="90"/>
       <c r="D28" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="62"/>
-      <c r="C29" s="88"/>
+      <c r="B29" s="78"/>
+      <c r="C29" s="91"/>
       <c r="D29" s="21" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="62"/>
-      <c r="C30" s="89">
+      <c r="B30" s="78"/>
+      <c r="C30" s="86">
         <v>45334</v>
       </c>
       <c r="D30" s="57" t="s">
@@ -1829,22 +1829,22 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="62"/>
-      <c r="C31" s="90"/>
+      <c r="B31" s="78"/>
+      <c r="C31" s="87"/>
       <c r="D31" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="63"/>
-      <c r="C32" s="90"/>
+      <c r="B32" s="79"/>
+      <c r="C32" s="87"/>
       <c r="D32" s="9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="49"/>
-      <c r="C33" s="67">
+      <c r="C33" s="75">
         <v>45335</v>
       </c>
       <c r="D33" s="55" t="s">
@@ -1853,14 +1853,14 @@
     </row>
     <row r="34" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B34" s="50"/>
-      <c r="C34" s="68"/>
+      <c r="C34" s="76"/>
       <c r="D34" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="35" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="51"/>
-      <c r="C35" s="69"/>
+      <c r="C35" s="77"/>
       <c r="D35" s="21" t="s">
         <v>13</v>
       </c>
@@ -1874,17 +1874,17 @@
       <c r="H36" s="17"/>
     </row>
     <row r="37" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="79" t="s">
+      <c r="B37" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="C37" s="80"/>
-      <c r="D37" s="81"/>
+      <c r="C37" s="68"/>
+      <c r="D37" s="69"/>
     </row>
     <row r="38" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="70" t="s">
+      <c r="B38" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="C38" s="73">
+      <c r="C38" s="61">
         <v>45023</v>
       </c>
       <c r="D38" s="31" t="s">
@@ -1892,20 +1892,20 @@
       </c>
     </row>
     <row r="39" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="71"/>
-      <c r="C39" s="74"/>
+      <c r="B39" s="59"/>
+      <c r="C39" s="62"/>
       <c r="D39" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="40" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="71"/>
-      <c r="C40" s="74"/>
+      <c r="B40" s="59"/>
+      <c r="C40" s="62"/>
       <c r="D40" s="7"/>
     </row>
     <row r="41" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="71"/>
-      <c r="C41" s="76">
+      <c r="B41" s="59"/>
+      <c r="C41" s="64">
         <v>45024</v>
       </c>
       <c r="D41" s="32" t="s">
@@ -1913,26 +1913,26 @@
       </c>
     </row>
     <row r="42" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="71"/>
-      <c r="C42" s="77"/>
+      <c r="B42" s="59"/>
+      <c r="C42" s="65"/>
       <c r="D42" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="43" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="71"/>
-      <c r="C43" s="77"/>
+      <c r="B43" s="59"/>
+      <c r="C43" s="65"/>
       <c r="D43" s="7"/>
     </row>
     <row r="44" spans="2:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="71"/>
+      <c r="B44" s="59"/>
       <c r="C44" s="26"/>
       <c r="D44" s="33" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="45" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B45" s="71"/>
+      <c r="B45" s="59"/>
       <c r="C45" s="27">
         <v>45025</v>
       </c>
@@ -1941,21 +1941,12 @@
       </c>
     </row>
     <row r="46" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="72"/>
+      <c r="B46" s="60"/>
       <c r="C46" s="28"/>
       <c r="D46" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F11:F25"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="C24:C26"/>
     <mergeCell ref="B38:B46"/>
     <mergeCell ref="B24:B32"/>
     <mergeCell ref="B6:B17"/>
@@ -1966,6 +1957,15 @@
     <mergeCell ref="C18:C21"/>
     <mergeCell ref="C30:C32"/>
     <mergeCell ref="C33:C35"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F11:F25"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="C24:C26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1990,17 +1990,17 @@
   <sheetData>
     <row r="4" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="99" t="s">
+      <c r="B5" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="100"/>
-      <c r="D5" s="101"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="97"/>
     </row>
     <row r="6" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="95" t="s">
+      <c r="B6" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="102">
+      <c r="C6" s="99">
         <v>45283</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -2008,29 +2008,29 @@
       </c>
     </row>
     <row r="7" spans="2:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="95"/>
-      <c r="C7" s="103"/>
+      <c r="B7" s="98"/>
+      <c r="C7" s="100"/>
       <c r="D7" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="95"/>
-      <c r="C8" s="103"/>
+      <c r="B8" s="98"/>
+      <c r="C8" s="100"/>
       <c r="D8" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="95"/>
-      <c r="C9" s="104"/>
+      <c r="B9" s="98"/>
+      <c r="C9" s="101"/>
       <c r="D9" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="95"/>
-      <c r="C10" s="105">
+      <c r="B10" s="98"/>
+      <c r="C10" s="102">
         <v>45284</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -2038,29 +2038,29 @@
       </c>
     </row>
     <row r="11" spans="2:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="95"/>
-      <c r="C11" s="106"/>
+      <c r="B11" s="98"/>
+      <c r="C11" s="103"/>
       <c r="D11" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="95"/>
-      <c r="C12" s="106"/>
+      <c r="B12" s="98"/>
+      <c r="C12" s="103"/>
       <c r="D12" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="95"/>
-      <c r="C13" s="107"/>
+      <c r="B13" s="98"/>
+      <c r="C13" s="104"/>
       <c r="D13" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="95"/>
-      <c r="C14" s="96">
+      <c r="B14" s="98"/>
+      <c r="C14" s="105">
         <v>45285</v>
       </c>
       <c r="D14" s="22" t="s">
@@ -2068,39 +2068,39 @@
       </c>
     </row>
     <row r="15" spans="2:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="95"/>
-      <c r="C15" s="97"/>
+      <c r="B15" s="98"/>
+      <c r="C15" s="106"/>
       <c r="D15" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="95"/>
-      <c r="C16" s="97"/>
+      <c r="B16" s="98"/>
+      <c r="C16" s="106"/>
       <c r="D16" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="95"/>
-      <c r="C17" s="98"/>
+      <c r="B17" s="98"/>
+      <c r="C17" s="107"/>
       <c r="D17" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="99" t="s">
+      <c r="B19" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="100"/>
-      <c r="D19" s="101"/>
+      <c r="C19" s="96"/>
+      <c r="D19" s="97"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="95" t="s">
+      <c r="B20" s="98" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="102">
+      <c r="C20" s="99">
         <v>45283</v>
       </c>
       <c r="D20" s="3" t="s">
@@ -2108,27 +2108,27 @@
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="95"/>
-      <c r="C21" s="103"/>
+      <c r="B21" s="98"/>
+      <c r="C21" s="100"/>
       <c r="D21" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="95"/>
-      <c r="C22" s="103"/>
+      <c r="B22" s="98"/>
+      <c r="C22" s="100"/>
       <c r="D22" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="95"/>
-      <c r="C23" s="104"/>
+      <c r="B23" s="98"/>
+      <c r="C23" s="101"/>
       <c r="D23" s="4"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="95"/>
-      <c r="C24" s="105">
+      <c r="B24" s="98"/>
+      <c r="C24" s="102">
         <v>45284</v>
       </c>
       <c r="D24" s="5" t="s">
@@ -2136,27 +2136,27 @@
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="95"/>
-      <c r="C25" s="106"/>
+      <c r="B25" s="98"/>
+      <c r="C25" s="103"/>
       <c r="D25" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="95"/>
-      <c r="C26" s="106"/>
+      <c r="B26" s="98"/>
+      <c r="C26" s="103"/>
       <c r="D26" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="95"/>
-      <c r="C27" s="107"/>
+      <c r="B27" s="98"/>
+      <c r="C27" s="104"/>
       <c r="D27" s="4"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="95"/>
-      <c r="C28" s="96">
+      <c r="B28" s="98"/>
+      <c r="C28" s="105">
         <v>45285</v>
       </c>
       <c r="D28" s="22" t="s">
@@ -2164,36 +2164,36 @@
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="95"/>
-      <c r="C29" s="97"/>
+      <c r="B29" s="98"/>
+      <c r="C29" s="106"/>
       <c r="D29" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="95"/>
-      <c r="C30" s="97"/>
+      <c r="B30" s="98"/>
+      <c r="C30" s="106"/>
       <c r="D30" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="31" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="95"/>
-      <c r="C31" s="98"/>
+      <c r="B31" s="98"/>
+      <c r="C31" s="107"/>
       <c r="D31" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B6:B17"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C10:C13"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B20:B31"/>
     <mergeCell ref="C20:C23"/>
     <mergeCell ref="C24:C27"/>
     <mergeCell ref="C28:C31"/>
-    <mergeCell ref="B6:B17"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C10:C13"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2218,17 +2218,17 @@
   <sheetData>
     <row r="4" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="99" t="s">
+      <c r="B5" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="100"/>
-      <c r="D5" s="101"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="97"/>
     </row>
     <row r="6" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="95" t="s">
+      <c r="B6" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="102">
+      <c r="C6" s="99">
         <v>45290</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -2236,22 +2236,22 @@
       </c>
     </row>
     <row r="7" spans="2:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="95"/>
-      <c r="C7" s="103"/>
+      <c r="B7" s="98"/>
+      <c r="C7" s="100"/>
       <c r="D7" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="95"/>
-      <c r="C8" s="103"/>
+      <c r="B8" s="98"/>
+      <c r="C8" s="100"/>
       <c r="D8" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="95"/>
-      <c r="C9" s="105">
+      <c r="B9" s="98"/>
+      <c r="C9" s="102">
         <v>45291</v>
       </c>
       <c r="D9" s="5" t="s">
@@ -2259,20 +2259,20 @@
       </c>
     </row>
     <row r="10" spans="2:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="95"/>
-      <c r="C10" s="106"/>
+      <c r="B10" s="98"/>
+      <c r="C10" s="103"/>
       <c r="D10" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="95"/>
-      <c r="C11" s="106"/>
+      <c r="B11" s="98"/>
+      <c r="C11" s="103"/>
       <c r="D11" s="4"/>
     </row>
     <row r="12" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="95"/>
-      <c r="C12" s="96">
+      <c r="B12" s="98"/>
+      <c r="C12" s="105">
         <v>45292</v>
       </c>
       <c r="D12" s="22" t="s">
@@ -2280,32 +2280,32 @@
       </c>
     </row>
     <row r="13" spans="2:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="95"/>
-      <c r="C13" s="97"/>
+      <c r="B13" s="98"/>
+      <c r="C13" s="106"/>
       <c r="D13" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="95"/>
-      <c r="C14" s="97"/>
+      <c r="B14" s="98"/>
+      <c r="C14" s="106"/>
       <c r="D14" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="99" t="s">
+      <c r="B16" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="100"/>
-      <c r="D16" s="101"/>
+      <c r="C16" s="96"/>
+      <c r="D16" s="97"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="95" t="s">
+      <c r="B17" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="102">
+      <c r="C17" s="99">
         <v>45290</v>
       </c>
       <c r="D17" s="3" t="s">
@@ -2313,27 +2313,27 @@
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="95"/>
-      <c r="C18" s="103"/>
+      <c r="B18" s="98"/>
+      <c r="C18" s="100"/>
       <c r="D18" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="95"/>
-      <c r="C19" s="103"/>
+      <c r="B19" s="98"/>
+      <c r="C19" s="100"/>
       <c r="D19" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="95"/>
-      <c r="C20" s="104"/>
+      <c r="B20" s="98"/>
+      <c r="C20" s="101"/>
       <c r="D20" s="4"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="95"/>
-      <c r="C21" s="105">
+      <c r="B21" s="98"/>
+      <c r="C21" s="102">
         <v>45291</v>
       </c>
       <c r="D21" s="5" t="s">
@@ -2341,27 +2341,27 @@
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="95"/>
-      <c r="C22" s="106"/>
+      <c r="B22" s="98"/>
+      <c r="C22" s="103"/>
       <c r="D22" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="95"/>
-      <c r="C23" s="106"/>
+      <c r="B23" s="98"/>
+      <c r="C23" s="103"/>
       <c r="D23" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="95"/>
-      <c r="C24" s="107"/>
+      <c r="B24" s="98"/>
+      <c r="C24" s="104"/>
       <c r="D24" s="4"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="95"/>
-      <c r="C25" s="96">
+      <c r="B25" s="98"/>
+      <c r="C25" s="105">
         <v>45292</v>
       </c>
       <c r="D25" s="22" t="s">
@@ -2369,22 +2369,22 @@
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="95"/>
-      <c r="C26" s="97"/>
+      <c r="B26" s="98"/>
+      <c r="C26" s="106"/>
       <c r="D26" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="95"/>
-      <c r="C27" s="97"/>
+      <c r="B27" s="98"/>
+      <c r="C27" s="106"/>
       <c r="D27" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="95"/>
-      <c r="C28" s="98"/>
+      <c r="B28" s="98"/>
+      <c r="C28" s="107"/>
       <c r="D28" s="4"/>
     </row>
   </sheetData>
@@ -2408,8 +2408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8691E67F-1F22-40BD-B03E-6216252CA523}">
   <dimension ref="B4:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2422,17 +2422,17 @@
   <sheetData>
     <row r="4" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="99" t="s">
+      <c r="B5" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="100"/>
-      <c r="D5" s="101"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="97"/>
     </row>
     <row r="6" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="95" t="s">
+      <c r="B6" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="102">
+      <c r="C6" s="99">
         <v>45199</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -2440,29 +2440,29 @@
       </c>
     </row>
     <row r="7" spans="2:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="95"/>
-      <c r="C7" s="103"/>
+      <c r="B7" s="98"/>
+      <c r="C7" s="100"/>
       <c r="D7" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="95"/>
-      <c r="C8" s="103"/>
+      <c r="B8" s="98"/>
+      <c r="C8" s="100"/>
       <c r="D8" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="95"/>
+      <c r="B9" s="98"/>
       <c r="C9" s="34"/>
       <c r="D9" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="95"/>
-      <c r="C10" s="105">
+      <c r="B10" s="98"/>
+      <c r="C10" s="102">
         <v>45200</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -2470,33 +2470,33 @@
       </c>
     </row>
     <row r="11" spans="2:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="95"/>
-      <c r="C11" s="106"/>
+      <c r="B11" s="98"/>
+      <c r="C11" s="103"/>
       <c r="D11" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="95"/>
-      <c r="C12" s="106"/>
+      <c r="B12" s="98"/>
+      <c r="C12" s="103"/>
       <c r="D12" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="95"/>
-      <c r="C13" s="106"/>
+      <c r="B13" s="98"/>
+      <c r="C13" s="103"/>
       <c r="D13" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="99" t="s">
+      <c r="B15" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="100"/>
-      <c r="D15" s="101"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="97"/>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="108" t="s">
@@ -2548,17 +2548,17 @@
     </row>
     <row r="29" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="99" t="s">
+      <c r="B30" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="100"/>
-      <c r="D30" s="101"/>
+      <c r="C30" s="96"/>
+      <c r="D30" s="97"/>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="95" t="s">
+      <c r="B31" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="C31" s="102">
+      <c r="C31" s="99">
         <v>45395</v>
       </c>
       <c r="D31" s="3" t="s">
@@ -2566,29 +2566,29 @@
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="95"/>
-      <c r="C32" s="103"/>
+      <c r="B32" s="98"/>
+      <c r="C32" s="100"/>
       <c r="D32" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="95"/>
-      <c r="C33" s="103"/>
+      <c r="B33" s="98"/>
+      <c r="C33" s="100"/>
       <c r="D33" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="34" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="95"/>
+      <c r="B34" s="98"/>
       <c r="C34" s="34"/>
       <c r="D34" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="95"/>
-      <c r="C35" s="105">
+      <c r="B35" s="98"/>
+      <c r="C35" s="102">
         <v>45396</v>
       </c>
       <c r="D35" s="5" t="s">
@@ -2596,33 +2596,33 @@
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="95"/>
-      <c r="C36" s="106"/>
+      <c r="B36" s="98"/>
+      <c r="C36" s="103"/>
       <c r="D36" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="95"/>
-      <c r="C37" s="106"/>
+      <c r="B37" s="98"/>
+      <c r="C37" s="103"/>
       <c r="D37" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="95"/>
-      <c r="C38" s="106"/>
+      <c r="B38" s="98"/>
+      <c r="C38" s="103"/>
       <c r="D38" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="39" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="40" spans="2:4" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="99" t="s">
+      <c r="B40" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="C40" s="100"/>
-      <c r="D40" s="101"/>
+      <c r="C40" s="96"/>
+      <c r="D40" s="97"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" s="108" t="s">
@@ -2674,70 +2674,74 @@
     </row>
     <row r="49" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="50" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="99" t="s">
+      <c r="B50" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="C50" s="100"/>
-      <c r="D50" s="101"/>
+      <c r="C50" s="96"/>
+      <c r="D50" s="97"/>
     </row>
     <row r="51" spans="2:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="95" t="s">
+      <c r="B51" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="C51" s="102">
-        <v>45374</v>
+      <c r="C51" s="99">
+        <v>45402</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B52" s="95"/>
-      <c r="C52" s="103"/>
+      <c r="B52" s="98"/>
+      <c r="C52" s="100"/>
       <c r="D52" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="53" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="95"/>
-      <c r="C53" s="103"/>
-      <c r="D53" s="4"/>
+      <c r="B53" s="98"/>
+      <c r="C53" s="100"/>
+      <c r="D53" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B54" s="95"/>
-      <c r="C54" s="105">
-        <v>45375</v>
+      <c r="B54" s="98"/>
+      <c r="C54" s="102">
+        <v>45403</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B55" s="95"/>
-      <c r="C55" s="106"/>
+      <c r="B55" s="98"/>
+      <c r="C55" s="103"/>
       <c r="D55" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B56" s="95"/>
-      <c r="C56" s="106"/>
-      <c r="D56" s="4"/>
+      <c r="B56" s="98"/>
+      <c r="C56" s="103"/>
+      <c r="D56" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="57" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="58" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="99" t="s">
+      <c r="B58" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="C58" s="100"/>
-      <c r="D58" s="101"/>
+      <c r="C58" s="96"/>
+      <c r="D58" s="97"/>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59" s="108" t="s">
         <v>28</v>
       </c>
-      <c r="C59" s="102">
-        <v>45374</v>
+      <c r="C59" s="99">
+        <v>45402</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>3</v>
@@ -2745,22 +2749,22 @@
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60" s="108"/>
-      <c r="C60" s="103"/>
+      <c r="C60" s="100"/>
       <c r="D60" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="61" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B61" s="108"/>
-      <c r="C61" s="103"/>
+      <c r="C61" s="100"/>
       <c r="D61" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B62" s="108"/>
-      <c r="C62" s="105">
-        <v>45375</v>
+      <c r="C62" s="102">
+        <v>45403</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>4</v>
@@ -2768,20 +2772,36 @@
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B63" s="108"/>
-      <c r="C63" s="106"/>
+      <c r="C63" s="103"/>
       <c r="D63" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B64" s="108"/>
-      <c r="C64" s="106"/>
+      <c r="C64" s="103"/>
       <c r="D64" s="4" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B59:B64"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:B56"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:B13"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="B15:D15"/>
     <mergeCell ref="B41:B46"/>
     <mergeCell ref="C41:C43"/>
     <mergeCell ref="C44:C46"/>
@@ -2790,22 +2810,6 @@
     <mergeCell ref="C31:C33"/>
     <mergeCell ref="C35:C38"/>
     <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:B13"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B59:B64"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="C62:C64"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:B56"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="B58:D58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
